--- a/data/georgia_census/qvemo-qartli/bolnisi/average_wages.xlsx
+++ b/data/georgia_census/qvemo-qartli/bolnisi/average_wages.xlsx
@@ -1116,13 +1116,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7808DB9B-D29D-444E-B831-978854D98973}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C28ACD01-61B3-4D4C-AE1C-9E19B9CAC29C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7795510-1FA2-4D1D-86B9-778E4297B900}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0304058-3265-46A5-BC40-96B6AF8A16A7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED12F089-F6F3-4789-AB43-8AE9473A3590}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD85D1A9-0CCC-4901-8F74-57FBF48C369E}"/>
 </file>